--- a/static/files/webinar/Lookup_Funktioner.xlsx
+++ b/static/files/webinar/Lookup_Funktioner.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Dropbox\OfficeGeek\Webinar\Excel_Lookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\www\static\files\webinar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE0292C-CCD0-4875-B747-42D84A12A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C169ADD-2DC8-4873-97F7-E223FB3D6A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{7EA13CFF-A4B7-4DF7-AC21-BEA1F5C5C0BC}"/>
+    <workbookView xWindow="1785" yWindow="120" windowWidth="20205" windowHeight="15165" xr2:uid="{7EA13CFF-A4B7-4DF7-AC21-BEA1F5C5C0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
-    <sheet name="LOPSLAG XLOOKUP Start" sheetId="2" r:id="rId2"/>
+    <sheet name="LOPSLAG XOPSLAG Start" sheetId="2" r:id="rId2"/>
     <sheet name="LOPSLAG XLOOKUP Slut" sheetId="3" r:id="rId3"/>
     <sheet name="VOPSLAG Start" sheetId="6" r:id="rId4"/>
     <sheet name="VOPSLAG Slut" sheetId="7" r:id="rId5"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
   <si>
     <t>Firma-ID</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Two Way Opslag</t>
   </si>
   <si>
-    <t>xopslag</t>
-  </si>
-  <si>
     <t>XLOOKUP</t>
   </si>
   <si>
@@ -289,6 +286,21 @@
   </si>
   <si>
     <t>FILTER</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>121256-1234</t>
+  </si>
+  <si>
+    <t>LOPSLAG &amp; XOPSLAG</t>
+  </si>
+  <si>
+    <t>121245-2345</t>
+  </si>
+  <si>
+    <t>Peter Jensen</t>
   </si>
 </sst>
 </file>
@@ -641,10 +653,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -657,6 +669,49 @@
         <b/>
         <i val="0"/>
         <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -734,13 +789,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -797,6 +845,79 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -998,15 +1119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1021,7 +1142,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086100" y="4972049"/>
+          <a:off x="2743200" y="4991099"/>
           <a:ext cx="2647950" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1144,7 +1265,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17EC9075-399D-408C-8BBF-7A133A0ECB0B}" name="Medarbejder" displayName="Medarbejder" ref="B4:E14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FE22396-4691-48DA-B949-0074FEF1ED32}" name="Medarbejder_2" displayName="Medarbejder_2" ref="B4:E16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CEF0F750-A8A2-448F-AE79-DE498F84BF8C}" name="Firma-ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B4B4C81B-6DFE-4A9A-AC09-8E4B76B23B99}" name="CPR" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E0AB8A67-97C4-4C3E-91A3-D4803E4E58E4}" name="Navn" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{883FB972-2A92-48EA-805C-5C7377FE1C7C}" name="Afdeling" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17EC9075-399D-408C-8BBF-7A133A0ECB0B}" name="Medarbejder" displayName="Medarbejder" ref="B4:E14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B4:E14" xr:uid="{58791D1C-F001-4D6F-8AE5-8AA503AF0162}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1155,41 +1288,41 @@
     <sortCondition ref="B5:B14"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{163F6810-08D5-4855-A56D-F88B2B67030F}" name="Firma-ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D7E5DADA-DEFF-4EFD-9EF7-064601289A1B}" name="CPR" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A6DD8B94-41B8-4346-B472-BB20FD393D49}" name="Navn" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0CA46F5B-EAB7-41A9-956D-B1265C3157B7}" name="Afdeling" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C88287A-5DE8-42DF-B403-E1A61BF926B0}" name="Point" displayName="Point" ref="B5:C17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B5:C17" xr:uid="{5331E64B-9CC3-4384-8F39-0306EB0D1C67}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39B4702A-A18D-40E8-8FDB-47CF65317008}" name="Navne" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6A3ABFE2-7872-4603-A324-69A618CB531A}" name="Point" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{163F6810-08D5-4855-A56D-F88B2B67030F}" name="Firma-ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{D7E5DADA-DEFF-4EFD-9EF7-064601289A1B}" name="CPR" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A6DD8B94-41B8-4346-B472-BB20FD393D49}" name="Navn" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{0CA46F5B-EAB7-41A9-956D-B1265C3157B7}" name="Afdeling" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84A6F4ED-AE02-409F-B070-998C836FDFBF}" name="PointLøsning" displayName="PointLøsning" ref="B5:C17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C88287A-5DE8-42DF-B403-E1A61BF926B0}" name="Point" displayName="Point" ref="B5:C17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B5:C17" xr:uid="{5331E64B-9CC3-4384-8F39-0306EB0D1C67}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EB020AFF-9BB2-4857-BB6F-BDCDF8C23AD5}" name="Navne" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{370C6995-1633-49AF-9C19-DB945050AE17}" name="Point" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{39B4702A-A18D-40E8-8FDB-47CF65317008}" name="Navne" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6A3ABFE2-7872-4603-A324-69A618CB531A}" name="Point" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84A6F4ED-AE02-409F-B070-998C836FDFBF}" name="PointLøsning" displayName="PointLøsning" ref="B5:C17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EB020AFF-9BB2-4857-BB6F-BDCDF8C23AD5}" name="Navne" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{370C6995-1633-49AF-9C19-DB945050AE17}" name="Point" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1510,7 +1643,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1523,10 +1656,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="39" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -1599,12 +1732,14 @@
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>114</v>
+      </c>
       <c r="L5" s="33" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1701,9 +1836,8 @@
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="M11" s="1" t="s">
-        <v>70</v>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -1722,7 +1856,6 @@
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -1740,7 +1873,6 @@
       <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
@@ -1758,7 +1890,34 @@
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>215</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>216</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:E14">
@@ -1768,6 +1927,9 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1778,7 +1940,9 @@
   </sheetPr>
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1865,7 +2029,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1884,13 +2048,9 @@
       <c r="G6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="str">
-        <f>VLOOKUP(H5,Medarbejder[],3,FALSE)</f>
-        <v>Lise Olsen</v>
-      </c>
       <c r="J6" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(H6)</f>
-        <v>=VLOOKUP(H5;Medarbejder;3;FALSE)</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H6),"")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -1909,13 +2069,9 @@
       <c r="G7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="str">
-        <f>VLOOKUP(H5,Medarbejder[],4,FALSE)</f>
-        <v>Administration</v>
-      </c>
       <c r="J7" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(H7)</f>
-        <v>=VLOOKUP(H5;Medarbejder;4;FALSE)</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H7),"")</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -1999,13 +2155,9 @@
       <c r="G12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <f>_xlfn.XLOOKUP($H$11,Medarbejder[CPR],Medarbejder[Firma-ID],"",0,1)</f>
-        <v>211</v>
-      </c>
       <c r="J12" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(H12)</f>
-        <v>=XLOOKUP($H$11;Medarbejder[CPR];Medarbejder[Firma-ID];"";0;1)</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H12),"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -2024,13 +2176,9 @@
       <c r="G13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="str">
-        <f>_xlfn.XLOOKUP($H$11,Medarbejder[CPR],Medarbejder[Navn],"",0,1)</f>
-        <v>Kirsten Klausen</v>
-      </c>
       <c r="J13" s="9" t="str">
-        <f t="shared" ref="J13:J14" ca="1" si="0">_xlfn.FORMULATEXT(H13)</f>
-        <v>=XLOOKUP($H$11;Medarbejder[CPR];Medarbejder[Navn];"";0;1)</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H13),"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -2049,13 +2197,9 @@
       <c r="G14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="4" t="str">
-        <f>_xlfn.XLOOKUP($H$11,Medarbejder[CPR],Medarbejder[Afdeling],"",0,1)</f>
-        <v>Marketing</v>
-      </c>
       <c r="J14" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=XLOOKUP($H$11;Medarbejder[CPR];Medarbejder[Afdeling];"";0;1)</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H14),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2231,7 @@
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2128,7 +2272,7 @@
         <v>60</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -2176,11 +2320,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C9),"")</f>
-        <v/>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -2188,6 +2328,10 @@
         <v>51</v>
       </c>
       <c r="C9" s="36"/>
+      <c r="D9" s="9" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C9),"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2247,7 +2391,7 @@
         <v>60</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -2308,7 +2452,7 @@
       </c>
       <c r="D9" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C9)</f>
-        <v>=HLOOKUP(C8;B4:G5;2;FALSE)</v>
+        <v>=VOPSLAG(C8;B4:G5;2;FALSK)</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2470,9 @@
   </sheetPr>
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2392,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -2418,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -2478,7 +2624,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="28"/>
@@ -2488,9 +2634,7 @@
       <c r="B10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="37">
-        <v>2021</v>
-      </c>
+      <c r="C10" s="37"/>
       <c r="E10" s="9"/>
       <c r="F10" s="28"/>
       <c r="G10" s="9"/>
@@ -2610,9 +2754,7 @@
       <c r="B21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="37">
-        <v>2021</v>
-      </c>
+      <c r="C21" s="37"/>
       <c r="E21" s="9"/>
       <c r="F21" s="28"/>
       <c r="G21" s="9"/>
@@ -2622,7 +2764,10 @@
         <v>51</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C22),"")</f>
+        <v/>
+      </c>
       <c r="F22" s="28"/>
       <c r="G22" s="9"/>
     </row>
@@ -2716,7 +2861,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="28"/>
@@ -2727,7 +2872,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="28"/>
@@ -2738,7 +2883,10 @@
         <v>51</v>
       </c>
       <c r="C33" s="36"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="38" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C33),"")</f>
+        <v/>
+      </c>
       <c r="G33" s="9"/>
     </row>
   </sheetData>
@@ -2757,7 +2905,7 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2824,7 +2972,7 @@
         <v>60</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -2850,7 +2998,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -2932,7 +3080,7 @@
       </c>
       <c r="G10" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F10)</f>
-        <v>=MATCH(C10;B4:B7;0)</v>
+        <v>=SAMMENLIGN(C10;B4:B7;0)</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -2952,7 +3100,7 @@
       </c>
       <c r="G11" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C11)</f>
-        <v>=HLOOKUP(C9;B4:G7;MATCH(C10;B4:B7;0);FALSE)</v>
+        <v>=VOPSLAG(C9;B4:G7;SAMMENLIGN(C10;B4:B7;0);FALSK)</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -2965,7 +3113,7 @@
       </c>
       <c r="G12" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F12)</f>
-        <v>=VLOOKUP(C10;B4:G7;MATCH(C9;B4:G4;0))</v>
+        <v>=LOPSLAG(C10;B4:G7;SAMMENLIGN(C9;B4:G4;0))</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -2993,6 +3141,9 @@
       <c r="G15" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
@@ -3070,7 +3221,7 @@
       </c>
       <c r="G20" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F20)</f>
-        <v>=MATCH(C20;C15:G15;0)</v>
+        <v>=SAMMENLIGN(C20;C15:G15;0)</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -3089,7 +3240,7 @@
       </c>
       <c r="G21" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F21)</f>
-        <v>=MATCH(C21;B15:B18;0)</v>
+        <v>=SAMMENLIGN(C21;B15:B18;0)</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -3109,7 +3260,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C22)</f>
-        <v>=INDEX(B15:G18;MATCH(C21;B15:B18;0);MATCH(C20;B15:G15;0))</v>
+        <v>=INDEKS(B15:G18;SAMMENLIGN(C21;B15:B18;0);SAMMENLIGN(C20;B15:G15;0))</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -3229,7 +3380,7 @@
       </c>
       <c r="E33" s="38" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C33)</f>
-        <v>=XLOOKUP(C31;C26:G26;XLOOKUP(C32;B27:B29;C27:G29))</v>
+        <v>=XOPSLAG(C31;C26:G26;XOPSLAG(C32;B27:B29;C27:G29))</v>
       </c>
       <c r="G33" s="9"/>
     </row>
@@ -3253,7 +3404,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3486,10 @@
       <c r="E8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="str" cm="1">
+        <f t="array" ref="F8:F9">_xlfn.XLOOKUP(F6:F7,Point[Point],Point[Navne],"",0,-1)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
@@ -3344,6 +3498,9 @@
       <c r="C9" s="12">
         <v>90</v>
       </c>
+      <c r="F9" s="1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -3359,7 +3516,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>36</v>
@@ -3449,7 +3606,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3457,7 +3614,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3467,10 +3624,10 @@
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C17">
+    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$6</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3488,8 +3645,8 @@
   </sheetPr>
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3713,7 @@
       </c>
       <c r="H6" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F6)</f>
-        <v>=MAX(PointLøsning[Point])</v>
+        <v>=MAKS(PointLøsning[Point])</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3584,7 +3741,7 @@
       </c>
       <c r="H8" s="9" t="str">
         <f t="shared" ref="H8" ca="1" si="0">_xlfn.FORMULATEXT(F8)</f>
-        <v>=XLOOKUP(F6;PointLøsning[Point];PointLøsning[Navne];"";0;1)</v>
+        <v>=XOPSLAG(F6;PointLøsning[Point];PointLøsning[Navne];"";0;1)</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3621,7 +3778,7 @@
       </c>
       <c r="H11" s="9" t="str">
         <f t="shared" ref="H11" ca="1" si="1">_xlfn.FORMULATEXT(F11)</f>
-        <v>=FILTER(PointLøsning[Navne];PointLøsning[Point]=MAX(PointLøsning[Point]))</v>
+        <v>=FILTRER(PointLøsning[Navne];PointLøsning[Point]=MAKS(PointLøsning[Point]))</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3717,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3725,7 +3882,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3892,7 @@
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$F$6</formula>
     </cfRule>
   </conditionalFormatting>
